--- a/results/mp/tinybert/dilemma/confidence/42/stop-words-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/42/stop-words-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,6 +40,9 @@
     <t>name</t>
   </si>
   <si>
+    <t>evil</t>
+  </si>
+  <si>
     <t>worst</t>
   </si>
   <si>
@@ -49,9 +52,6 @@
     <t>terrifying</t>
   </si>
   <si>
-    <t>evil</t>
-  </si>
-  <si>
     <t>illegal</t>
   </si>
   <si>
@@ -61,24 +61,15 @@
     <t>addicted</t>
   </si>
   <si>
+    <t>shit</t>
+  </si>
+  <si>
     <t>scary</t>
   </si>
   <si>
-    <t>seriously</t>
-  </si>
-  <si>
     <t>crazy</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -94,19 +85,16 @@
     <t>interesting</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>important</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>social</t>
-  </si>
-  <si>
-    <t>media</t>
   </si>
   <si>
     <t>positive</t>
@@ -467,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -475,10 +463,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -536,13 +524,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -554,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -578,7 +566,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -586,13 +574,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9333333333333333</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -607,16 +595,16 @@
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K4">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="L4">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M4">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -628,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -636,13 +624,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9242424242424242</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C5">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="D5">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -654,31 +642,31 @@
         <v>0</v>
       </c>
       <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="L5">
+        <v>25</v>
+      </c>
+      <c r="M5">
+        <v>25</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>5</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5">
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="L5">
-        <v>26</v>
-      </c>
-      <c r="M5">
-        <v>26</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -686,13 +674,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9230769230769231</v>
+        <v>0.9242424242424242</v>
       </c>
       <c r="C6">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -704,19 +692,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K6">
-        <v>0.7017543859649122</v>
+        <v>0.7192982456140351</v>
       </c>
       <c r="L6">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M6">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -728,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -757,16 +745,16 @@
         <v>9</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K7">
-        <v>0.5</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="L7">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M7">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -778,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -786,13 +774,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7894736842105263</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -804,19 +792,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K8">
-        <v>0.4666666666666667</v>
+        <v>0.5466666666666666</v>
       </c>
       <c r="L8">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="M8">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -828,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -836,37 +824,37 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.625</v>
+        <v>0.675</v>
       </c>
       <c r="C9">
+        <v>27</v>
+      </c>
+      <c r="D9">
+        <v>27</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>13</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D9">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>15</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="K9">
-        <v>0.4482758620689655</v>
+        <v>0.5</v>
       </c>
       <c r="L9">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M9">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -878,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -886,13 +874,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5289855072463768</v>
+        <v>0.4680851063829787</v>
       </c>
       <c r="C10">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="D10">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -904,10 +892,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K10">
         <v>0.075591985428051</v>
@@ -936,13 +924,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4642857142857143</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="C11">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -954,31 +942,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>15</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K11">
-        <v>0.02710843373493976</v>
-      </c>
-      <c r="L11">
-        <v>18</v>
-      </c>
-      <c r="M11">
-        <v>18</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>646</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -986,13 +950,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4571428571428571</v>
+        <v>0.4</v>
       </c>
       <c r="C12">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D12">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1004,85 +968,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0.3829787234042553</v>
-      </c>
-      <c r="C13">
-        <v>18</v>
-      </c>
-      <c r="D13">
-        <v>18</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>0.3076923076923077</v>
-      </c>
-      <c r="C14">
-        <v>12</v>
-      </c>
-      <c r="D14">
-        <v>12</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>0.1794871794871795</v>
-      </c>
-      <c r="C15">
-        <v>14</v>
-      </c>
-      <c r="D15">
-        <v>14</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>64</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
